--- a/ERP-BlazorApp/ERP.BlazorUI/wwwroot/exports/EE3212_Quiz 1_Results.xlsx
+++ b/ERP-BlazorApp/ERP.BlazorUI/wwwroot/exports/EE3212_Quiz 1_Results.xlsx
@@ -28,7 +28,7 @@
     <x:t>Module Name</x:t>
   </x:si>
   <x:si>
-    <x:t>DevOps</x:t>
+    <x:t>DevOps Engineering</x:t>
   </x:si>
   <x:si>
     <x:t>Semester</x:t>
@@ -46,7 +46,7 @@
     <x:t>Cordinator</x:t>
   </x:si>
   <x:si>
-    <x:t>Ryan Perera</x:t>
+    <x:t>Saman Perera</x:t>
   </x:si>
   <x:si>
     <x:t>Reg. No.</x:t>
@@ -67,19 +67,19 @@
     <x:t>EG/2020/4112</x:t>
   </x:si>
   <x:si>
-    <x:t>nithil Perera</x:t>
+    <x:t>nithil Sheshan</x:t>
   </x:si>
   <x:si>
     <x:t>EG/2020/4113</x:t>
   </x:si>
   <x:si>
-    <x:t>ryan Perera</x:t>
+    <x:t>ryan Dilanka</x:t>
   </x:si>
   <x:si>
     <x:t>EG/2020/4114</x:t>
   </x:si>
   <x:si>
-    <x:t>amantha Perera</x:t>
+    <x:t>amantha Suraweera</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -494,8 +494,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="13.085625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.085625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.335625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">

--- a/ERP-BlazorApp/ERP.BlazorUI/wwwroot/exports/EE3212_Quiz 1_Results.xlsx
+++ b/ERP-BlazorApp/ERP.BlazorUI/wwwroot/exports/EE3212_Quiz 1_Results.xlsx
@@ -25,30 +25,30 @@
     <x:t>EE3212</x:t>
   </x:si>
   <x:si>
+    <x:t>Evaluation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quiz 1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Module Name</x:t>
   </x:si>
   <x:si>
     <x:t>DevOps Engineering</x:t>
   </x:si>
   <x:si>
+    <x:t>Cordinator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saman Perera</x:t>
+  </x:si>
+  <x:si>
     <x:t>Semester</x:t>
   </x:si>
   <x:si>
     <x:t>Semester 03</x:t>
   </x:si>
   <x:si>
-    <x:t>Evaluation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quiz 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cordinator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saman Perera</x:t>
-  </x:si>
-  <x:si>
     <x:t>Reg. No.</x:t>
   </x:si>
   <x:si>
@@ -58,25 +58,25 @@
     <x:t>Marks</x:t>
   </x:si>
   <x:si>
-    <x:t>EG/2020/4111</x:t>
+    <x:t>EG/2020/4001</x:t>
   </x:si>
   <x:si>
     <x:t>Lasith Perera</x:t>
   </x:si>
   <x:si>
-    <x:t>EG/2020/4112</x:t>
+    <x:t>EG/2020/4002</x:t>
   </x:si>
   <x:si>
     <x:t>nithil Sheshan</x:t>
   </x:si>
   <x:si>
-    <x:t>EG/2020/4113</x:t>
+    <x:t>EG/2020/4003</x:t>
   </x:si>
   <x:si>
     <x:t>ryan Dilanka</x:t>
   </x:si>
   <x:si>
-    <x:t>EG/2020/4114</x:t>
+    <x:t>EG/2020/4004</x:t>
   </x:si>
   <x:si>
     <x:t>amantha Suraweera</x:t>
@@ -155,7 +155,7 @@
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -169,31 +169,26 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="2">
-    <x:dxf/>
+  <x:dxfs count="1">
     <x:dxf/>
   </x:dxfs>
 </x:styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:C13" totalsRowShown="0">
-  <x:autoFilter ref="A9:C13"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:E11" totalsRowShown="0">
+  <x:autoFilter ref="C7:E11"/>
   <x:tableColumns count="3">
-    <x:tableColumn id="1" name="Reg. No." dataDxfId="0"/>
-    <x:tableColumn id="2" name="Name" dataDxfId="0"/>
-    <x:tableColumn id="3" name="Marks" dataDxfId="1"/>
+    <x:tableColumn id="1" name="Reg. No."/>
+    <x:tableColumn id="2" name="Name"/>
+    <x:tableColumn id="3" name="Marks" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -487,121 +482,119 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C13"/>
+  <x:dimension ref="A1:F11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.085625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.085625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.335625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="18.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:6">
       <x:c r="B3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+      <x:c r="E3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
       <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" s="1" customFormat="1">
+      <x:c r="C7" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="C8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="B5" s="0" t="s">
+    <x:row r="9" spans="1:6">
+      <x:c r="C9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="C10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="B7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" s="1" customFormat="1">
-      <x:c r="A9" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C10" s="4">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C11" s="4">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C12" s="4">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="3" t="s">
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="C11" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B13" s="3" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C13" s="4">
+      <x:c r="E11" s="3">
         <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="83AF" sheet="1" objects="1"/>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A1:H1"/>
+    <x:mergeCell ref="A1:I1"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
